--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ifng-Ifngr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ifng-Ifngr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1748683333333333</v>
+        <v>0.06628299999999999</v>
       </c>
       <c r="H2">
-        <v>0.524605</v>
+        <v>0.198849</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>65.68699766666667</v>
+        <v>76.56242133333333</v>
       </c>
       <c r="N2">
-        <v>197.060993</v>
+        <v>229.687264</v>
       </c>
       <c r="O2">
-        <v>0.3141023824961676</v>
+        <v>0.3581170284509773</v>
       </c>
       <c r="P2">
-        <v>0.3141023824961676</v>
+        <v>0.3581170284509773</v>
       </c>
       <c r="Q2">
-        <v>11.48657580364056</v>
+        <v>5.074786973237333</v>
       </c>
       <c r="R2">
-        <v>103.379182232765</v>
+        <v>45.673082759136</v>
       </c>
       <c r="S2">
-        <v>0.3141023824961676</v>
+        <v>0.2083667525667163</v>
       </c>
       <c r="T2">
-        <v>0.3141023824961676</v>
+        <v>0.2083667525667162</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1748683333333333</v>
+        <v>0.06628299999999999</v>
       </c>
       <c r="H3">
-        <v>0.524605</v>
+        <v>0.198849</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.43701799999999</v>
+        <v>47.437018</v>
       </c>
       <c r="N3">
         <v>142.311054</v>
       </c>
       <c r="O3">
-        <v>0.2268345471949426</v>
+        <v>0.221884360876912</v>
       </c>
       <c r="P3">
-        <v>0.2268345471949426</v>
+        <v>0.221884360876912</v>
       </c>
       <c r="Q3">
-        <v>8.295232275963333</v>
+        <v>3.144267864094</v>
       </c>
       <c r="R3">
-        <v>74.65709048366999</v>
+        <v>28.298410776846</v>
       </c>
       <c r="S3">
-        <v>0.2268345471949426</v>
+        <v>0.1291011598114843</v>
       </c>
       <c r="T3">
-        <v>0.2268345471949426</v>
+        <v>0.1291011598114843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1748683333333333</v>
+        <v>0.06628299999999999</v>
       </c>
       <c r="H4">
-        <v>0.524605</v>
+        <v>0.198849</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.711512</v>
+        <v>18.65483866666667</v>
       </c>
       <c r="N4">
-        <v>47.134536</v>
+        <v>55.964516</v>
       </c>
       <c r="O4">
-        <v>0.07512937913314675</v>
+        <v>0.08725710698794852</v>
       </c>
       <c r="P4">
-        <v>0.07512937913314677</v>
+        <v>0.08725710698794852</v>
       </c>
       <c r="Q4">
-        <v>2.747445917586666</v>
+        <v>1.236498671342667</v>
       </c>
       <c r="R4">
-        <v>24.72701325828</v>
+        <v>11.128488042084</v>
       </c>
       <c r="S4">
-        <v>0.07512937913314675</v>
+        <v>0.0507696606891013</v>
       </c>
       <c r="T4">
-        <v>0.07512937913314677</v>
+        <v>0.0507696606891013</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1748683333333333</v>
+        <v>0.06628299999999999</v>
       </c>
       <c r="H5">
-        <v>0.524605</v>
+        <v>0.198849</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.29054499999999</v>
+        <v>71.13734666666666</v>
       </c>
       <c r="N5">
-        <v>240.871635</v>
+        <v>213.41204</v>
       </c>
       <c r="O5">
-        <v>0.383933691175743</v>
+        <v>0.3327415036841621</v>
       </c>
       <c r="P5">
-        <v>0.3839336911757431</v>
+        <v>0.3327415036841621</v>
       </c>
       <c r="Q5">
-        <v>14.040273786575</v>
+        <v>4.715196749106666</v>
       </c>
       <c r="R5">
-        <v>126.362464079175</v>
+        <v>42.43677074196</v>
       </c>
       <c r="S5">
-        <v>0.383933691175743</v>
+        <v>0.1936022614359591</v>
       </c>
       <c r="T5">
-        <v>0.3839336911757431</v>
+        <v>0.1936022614359591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.04763666666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.14291</v>
+      </c>
+      <c r="I6">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="J6">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>76.56242133333333</v>
+      </c>
+      <c r="N6">
+        <v>229.687264</v>
+      </c>
+      <c r="O6">
+        <v>0.3581170284509773</v>
+      </c>
+      <c r="P6">
+        <v>0.3581170284509773</v>
+      </c>
+      <c r="Q6">
+        <v>3.647178544248889</v>
+      </c>
+      <c r="R6">
+        <v>32.82460689824</v>
+      </c>
+      <c r="S6">
+        <v>0.149750275884261</v>
+      </c>
+      <c r="T6">
+        <v>0.149750275884261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04763666666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.14291</v>
+      </c>
+      <c r="I7">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="J7">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>47.437018</v>
+      </c>
+      <c r="N7">
+        <v>142.311054</v>
+      </c>
+      <c r="O7">
+        <v>0.221884360876912</v>
+      </c>
+      <c r="P7">
+        <v>0.221884360876912</v>
+      </c>
+      <c r="Q7">
+        <v>2.259741414126667</v>
+      </c>
+      <c r="R7">
+        <v>20.33767272714</v>
+      </c>
+      <c r="S7">
+        <v>0.09278320106542767</v>
+      </c>
+      <c r="T7">
+        <v>0.09278320106542767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04763666666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.14291</v>
+      </c>
+      <c r="I8">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="J8">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>18.65483866666667</v>
+      </c>
+      <c r="N8">
+        <v>55.964516</v>
+      </c>
+      <c r="O8">
+        <v>0.08725710698794852</v>
+      </c>
+      <c r="P8">
+        <v>0.08725710698794852</v>
+      </c>
+      <c r="Q8">
+        <v>0.8886543312844445</v>
+      </c>
+      <c r="R8">
+        <v>7.997888981560001</v>
+      </c>
+      <c r="S8">
+        <v>0.0364874462988472</v>
+      </c>
+      <c r="T8">
+        <v>0.0364874462988472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04763666666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.14291</v>
+      </c>
+      <c r="I9">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="J9">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>71.13734666666666</v>
+      </c>
+      <c r="N9">
+        <v>213.41204</v>
+      </c>
+      <c r="O9">
+        <v>0.3327415036841621</v>
+      </c>
+      <c r="P9">
+        <v>0.3327415036841621</v>
+      </c>
+      <c r="Q9">
+        <v>3.388746070711111</v>
+      </c>
+      <c r="R9">
+        <v>30.4987146364</v>
+      </c>
+      <c r="S9">
+        <v>0.139139242248203</v>
+      </c>
+      <c r="T9">
+        <v>0.139139242248203</v>
       </c>
     </row>
   </sheetData>
